--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C026F61-7FCA-48A3-B383-7C4336878DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FA867A-5C6C-47E8-9C8B-23609443BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Department</t>
   </si>
@@ -647,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -912,4 +936,385 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267F40-9537-49D3-AAA6-275C54EE9378}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>793</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>191</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="str" cm="1">
+        <f t="array" ref="G7:I14">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A2:C20,A2:A20=F7),3,-1)</f>
+        <v>IT</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Emily</v>
+      </c>
+      <c r="I7">
+        <v>660</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IFERROR(_xlfn.TEXTBEFORE(_xlfn.TEXTJOIN(", ",TRUE,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),2)),", ",2),H7)</f>
+        <v>Emily, Karen</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>357</v>
+      </c>
+      <c r="G8" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Karen</v>
+      </c>
+      <c r="I8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>328</v>
+      </c>
+      <c r="G9" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Aaron</v>
+      </c>
+      <c r="I9">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>469</v>
+      </c>
+      <c r="G10" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Nathan</v>
+      </c>
+      <c r="I10">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>163</v>
+      </c>
+      <c r="G11" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Billy</v>
+      </c>
+      <c r="I11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>732</v>
+      </c>
+      <c r="G12" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Carolyn</v>
+      </c>
+      <c r="I12">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+      <c r="G13" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Megan</v>
+      </c>
+      <c r="I13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>768</v>
+      </c>
+      <c r="G14" t="str">
+        <v>IT</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Lawrence</v>
+      </c>
+      <c r="I14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>405</v>
+      </c>
+      <c r="G16" t="str">
+        <f>K7</f>
+        <v>Emily, Karen</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>579</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17:F20">_xlfn._xlws.SORT(_xlfn.UNIQUE(A2:A20))</f>
+        <v>Admin</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="dataTable" ref="G17:G20" dt2D="0" dtr="0" r1="F7"/>
+        <v>Lauren</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>323</v>
+      </c>
+      <c r="F18" t="str">
+        <v>HR</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>503</v>
+      </c>
+      <c r="F19" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Emily, Karen</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>94</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Russell, Lisa</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FA867A-5C6C-47E8-9C8B-23609443BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AED6D8-9DF8-4F0A-8385-B95B21A69592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267F40-9537-49D3-AAA6-275C54EE9378}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +956,7 @@
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -988,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1073,12 +1073,22 @@
       <c r="I7">
         <v>660</v>
       </c>
+      <c r="J7" t="str" cm="1">
+        <f t="array" ref="J7:L9">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(G7),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3)&gt;=LARGE(_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3),2))</f>
+        <v>IT</v>
+      </c>
       <c r="K7" t="str">
-        <f>IFERROR(_xlfn.TEXTBEFORE(_xlfn.TEXTJOIN(", ",TRUE,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),2)),", ",2),H7)</f>
-        <v>Emily, Karen</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Emily</v>
+      </c>
+      <c r="L7">
+        <v>660</v>
+      </c>
+      <c r="N7" t="str">
+        <f>IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(J7),2)),H7)</f>
+        <v>Emily, Karen, Aaron</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1107,17 @@
       <c r="I8">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>IT</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Karen</v>
+      </c>
+      <c r="L8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1117,8 +1136,17 @@
       <c r="I9">
         <v>579</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>IT</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Aaron</v>
+      </c>
+      <c r="L9">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1166,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1186,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1206,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1198,7 +1226,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1246,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1257,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1240,8 +1268,8 @@
         <v>405</v>
       </c>
       <c r="G16" t="str">
-        <f>K7</f>
-        <v>Emily, Karen</v>
+        <f>N7</f>
+        <v>Emily, Karen, Aaron</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,7 +1322,7 @@
         <v>IT</v>
       </c>
       <c r="G19" t="str">
-        <v>Emily, Karen</v>
+        <v>Emily, Karen, Aaron</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AED6D8-9DF8-4F0A-8385-B95B21A69592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCBA6C-C4E2-4DB1-86F3-6C74FF5006EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267F40-9537-49D3-AAA6-275C54EE9378}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,31 +1061,31 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" t="str" cm="1">
-        <f t="array" ref="G7:I14">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A2:C20,A2:A20=F7),3,-1)</f>
-        <v>IT</v>
+        <f t="array" ref="G7:I9">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A2:C20,A2:A20=F7),3,-1)</f>
+        <v>HR</v>
       </c>
       <c r="H7" t="str">
-        <v>Emily</v>
+        <v>Thomas</v>
       </c>
       <c r="I7">
-        <v>660</v>
+        <v>921</v>
       </c>
       <c r="J7" t="str" cm="1">
-        <f t="array" ref="J7:L9">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(G7),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3)&gt;=LARGE(_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3),2))</f>
-        <v>IT</v>
+        <f t="array" ref="J7:L8">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(G7),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3)&gt;=LARGE(_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(G7),3),2))</f>
+        <v>HR</v>
       </c>
       <c r="K7" t="str">
-        <v>Emily</v>
+        <v>Thomas</v>
       </c>
       <c r="L7">
-        <v>660</v>
+        <v>921</v>
       </c>
       <c r="N7" t="str">
         <f>IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(J7),2)),H7)</f>
-        <v>Emily, Karen, Aaron</v>
+        <v>Thomas, Olivia</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1099,22 +1099,22 @@
         <v>357</v>
       </c>
       <c r="G8" t="str">
-        <v>IT</v>
+        <v>HR</v>
       </c>
       <c r="H8" t="str">
-        <v>Karen</v>
+        <v>Olivia</v>
       </c>
       <c r="I8">
-        <v>579</v>
+        <v>768</v>
       </c>
       <c r="J8" t="str">
-        <v>IT</v>
+        <v>HR</v>
       </c>
       <c r="K8" t="str">
-        <v>Karen</v>
+        <v>Olivia</v>
       </c>
       <c r="L8">
-        <v>579</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1128,22 +1128,13 @@
         <v>328</v>
       </c>
       <c r="G9" t="str">
-        <v>IT</v>
+        <v>HR</v>
       </c>
       <c r="H9" t="str">
-        <v>Aaron</v>
+        <v>Christian</v>
       </c>
       <c r="I9">
-        <v>579</v>
-      </c>
-      <c r="J9" t="str">
-        <v>IT</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Aaron</v>
-      </c>
-      <c r="L9">
-        <v>579</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1156,15 +1147,6 @@
       <c r="C10">
         <v>469</v>
       </c>
-      <c r="G10" t="str">
-        <v>IT</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Nathan</v>
-      </c>
-      <c r="I10">
-        <v>503</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1176,15 +1158,6 @@
       <c r="C11">
         <v>163</v>
       </c>
-      <c r="G11" t="str">
-        <v>IT</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Billy</v>
-      </c>
-      <c r="I11">
-        <v>469</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1196,15 +1169,6 @@
       <c r="C12">
         <v>732</v>
       </c>
-      <c r="G12" t="str">
-        <v>IT</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Carolyn</v>
-      </c>
-      <c r="I12">
-        <v>405</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1214,15 +1178,6 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>194</v>
-      </c>
-      <c r="G13" t="str">
-        <v>IT</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Megan</v>
-      </c>
-      <c r="I13">
         <v>194</v>
       </c>
     </row>
@@ -1236,15 +1191,6 @@
       <c r="C14">
         <v>768</v>
       </c>
-      <c r="G14" t="str">
-        <v>IT</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Lawrence</v>
-      </c>
-      <c r="I14">
-        <v>191</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1269,10 +1215,10 @@
       </c>
       <c r="G16" t="str">
         <f>N7</f>
-        <v>Emily, Karen, Aaron</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1236,15 @@
         <f t="dataTable" ref="G17:G20" dt2D="0" dtr="0" r1="F7"/>
         <v>Lauren</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" t="b" cm="1">
+        <f t="array" ref="I17:J20">F17:G20=E2:F5</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1307,8 +1260,14 @@
       <c r="G18" t="str">
         <v>Thomas, Olivia</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1324,8 +1283,14 @@
       <c r="G19" t="str">
         <v>Emily, Karen, Aaron</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1339,6 +1304,51 @@
         <v>Sales</v>
       </c>
       <c r="G20" t="str">
+        <v>Russell, Lisa</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" t="str" cm="1">
+        <f t="array" ref="F23:G26">_xlfn.LET(
+_xlpm.d, _xlfn._xlws.SORT(_xlfn.UNIQUE(A2:A20)),
+_xlpm.fx,_xlfn.LAMBDA(_xlpm.a, _xlfn._xlws.SORT(_xlfn._xlws.FILTER(A2:C20,A2:A20=_xlpm.a),3,-1)),
+_xlpm.fy,_xlfn.LAMBDA(_xlpm.a, _xlfn._xlws.FILTER(_xlpm.a,_xlfn.CHOOSECOLS(_xlpm.a,3)&gt;=LARGE(_xlfn.CHOOSECOLS(_xlpm.a,3),2))),
+_xlpm.fz,_xlfn.LAMBDA(_xlpm.z,IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn.CHOOSECOLS(_xlpm.fy(_xlpm.fx(_xlpm.z)),2)),INDEX(_xlpm.fx(_xlpm.z),1,2))),
+_xlfn.HSTACK(_xlpm.d,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.d,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlpm.fz(_xlpm.v)))),1))
+)</f>
+        <v>Admin</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Lauren</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <v>HR</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Emily, Karen, Aaron</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G26" t="str">
         <v>Russell, Lisa</v>
       </c>
     </row>

--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCBA6C-C4E2-4DB1-86F3-6C74FF5006EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F83F5-8DE7-4B0C-A81A-EEFB49646DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$20</definedName>
   </definedNames>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>Department</t>
   </si>
@@ -150,13 +152,16 @@
   </si>
   <si>
     <t>Nathan</t>
+  </si>
+  <si>
+    <t>Good Use of Groupby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +176,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -214,6 +225,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267F40-9537-49D3-AAA6-275C54EE9378}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1355,4 +1367,312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCD779-DF9E-4112-9F6C-14ADBF31323B}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>793</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="str" cm="1">
+        <f t="array" ref="A24:B27">_xlfn.GROUPBY(A2:A20,C2:C20-10^6&amp;B2:B20,_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(_xlpm.s,-LEFT(_xlpm.x,7),_xlfn.ARRAYTOTEXT(_xlfn._xlws.FILTER(MID(_xlpm.x,8,9),_xlpm.s&lt;=SMALL(_xlpm.s,MIN(ROWS(_xlpm.x),2)))))),,0)</f>
+        <v>Admin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Lauren</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>HR</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>IT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Emily, Karen, Aaron</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Russell, Lisa</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F83F5-8DE7-4B0C-A81A-EEFB49646DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055BA72-CC79-4265-897F-4E870B899024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$20</definedName>
   </definedNames>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
   <si>
     <t>Department</t>
   </si>
@@ -155,6 +157,12 @@
   </si>
   <si>
     <t>Good Use of Groupby</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7240229346810937344/</t>
+  </si>
+  <si>
+    <t>Good Use of Array to Text</t>
   </si>
 </sst>
 </file>
@@ -681,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +704,7 @@
     <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,8 +718,11 @@
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -728,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -745,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -762,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -779,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -790,7 +801,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -801,7 +812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -812,7 +823,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -823,7 +834,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -834,7 +845,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -845,7 +856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -856,7 +867,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -867,7 +878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -878,7 +889,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -889,7 +900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCD779-DF9E-4112-9F6C-14ADBF31323B}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,4 +1686,312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02643919-8D5F-4899-B4FC-2B2812DDF01E}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>793</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="str" cm="1">
+        <f t="array" ref="A24:B27">_xlfn.LET(_xlpm.d,A2:A20,_xlpm.s,C2:C20,_xlpm.u,_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlpm.d)),_xlfn.HSTACK(_xlpm.u,_xlfn.MAP(_xlpm.u,_xlfn.LAMBDA(_xlpm.v,_xlfn.LET(_xlpm.y,_xlpm.d=_xlpm.v,_xlfn.ARRAYTOTEXT(_xlfn._xlws.FILTER(B2:B20,_xlpm.y*(_xlpm.s&gt;=LARGE(_xlpm.y*_xlpm.s,MIN(SUM(--_xlpm.y),2))))))))))</f>
+        <v>Admin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Lauren</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>HR</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>IT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Emily, Karen, Aaron</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Russell, Lisa</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055BA72-CC79-4265-897F-4E870B899024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE8AE1-EF6A-480B-8101-4DEF32C21E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt1" sheetId="3" r:id="rId3"/>
     <sheet name="Alt2" sheetId="4" r:id="rId4"/>
+    <sheet name="Alt3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt1'!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alt3'!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$20</definedName>
   </definedNames>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="33">
   <si>
     <t>Department</t>
   </si>
@@ -163,6 +165,9 @@
   </si>
   <si>
     <t>Good Use of Array to Text</t>
+  </si>
+  <si>
+    <t>Shortest solution</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02643919-8D5F-4899-B4FC-2B2812DDF01E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1994,4 +1999,312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695CFB09-EC70-491F-8702-E4D158F5DD27}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>921</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>793</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="str" cm="1">
+        <f t="array" ref="A24:B27">_xlfn.LET(_xlpm.a,A2:A20,_xlpm.c,C2:C20,_xlfn.GROUPBY(_xlpm.a,B2:B20,_xleta.ARRAYTOTEXT,,0,,COUNTIFS(_xlpm.a,_xlpm.a,_xlpm.c,"&gt;"&amp;_xlpm.c)&lt;2))</f>
+        <v>Admin</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Lauren</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>HR</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Thomas, Olivia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>IT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Emily, Karen, Aaron</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Russell, Lisa</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_543 - Top 2 Salaries.xlsx
+++ b/Excel_Challenge_543 - Top 2 Salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE8AE1-EF6A-480B-8101-4DEF32C21E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDA19D-8F82-4A6D-95F6-3BD00C40DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,6 +692,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="792" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ED38FD4E-5377-4854-8488-C66B914E9738}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
@@ -2005,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695CFB09-EC70-491F-8702-E4D158F5DD27}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2300,19 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str" cm="1">
-        <f t="array" ref="A24:B27">_xlfn.LET(_xlpm.a,A2:A20,_xlpm.c,C2:C20,_xlfn.GROUPBY(_xlpm.a,B2:B20,_xleta.ARRAYTOTEXT,,0,,COUNTIFS(_xlpm.a,_xlpm.a,_xlpm.c,"&gt;"&amp;_xlpm.c)&lt;2))</f>
+        <f t="array" ref="A24:B27">_xlfn.LET(
+    _xlpm.a, A2:A20,
+    _xlpm.c, C2:C20,
+    _xlfn.GROUPBY(
+        _xlpm.a,
+        B2:B20,
+        _xleta.ARRAYTOTEXT,
+        ,
+        0,
+        ,
+        COUNTIFS(_xlpm.a, _xlpm.a, _xlpm.c, "&gt;" &amp; _xlpm.c) &lt; 2
+    )
+)</f>
         <v>Admin</v>
       </c>
       <c r="B24" t="str">
